--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -12,12 +12,12 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>row number</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>https://www.nginx.com/resources/glossary/reverse-proxy-server/</t>
+  </si>
+  <si>
+    <t>use automated build, test,deploy</t>
+  </si>
+  <si>
+    <t>Draw.io  UML diagram software</t>
   </si>
 </sst>
 </file>
@@ -367,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +409,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>row number</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Draw.io  UML diagram software</t>
+  </si>
+  <si>
+    <t>What is database replication?</t>
+  </si>
+  <si>
+    <t>Netflix called Chaos Monkey</t>
+  </si>
+  <si>
+    <t>cloud hosting services like Amazon Web Services (AWS)</t>
   </si>
 </sst>
 </file>
@@ -373,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +434,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>row number</t>
   </si>
@@ -44,13 +44,44 @@
   </si>
   <si>
     <t>cloud hosting services like Amazon Web Services (AWS)</t>
+  </si>
+  <si>
+    <t>how to set session storage in MVC to cookie, seperate storage or load balancer with sticky session</t>
+  </si>
+  <si>
+    <r>
+      <t>object-clustering technologies like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Teracotta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for your session storage. Terracotta allows for transparent object access from multiple machines by introducing synchronization, distributed locking, and consistency guarantees</t>
+    </r>
+  </si>
+  <si>
+    <t>use a CDN to store static files  AMAZON Simple Storage Service (S3) or Azure Blob Storage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +89,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,6 +504,30 @@
       </c>
       <c r="B8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>row number</t>
   </si>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>use a CDN to store static files  AMAZON Simple Storage Service (S3) or Azure Blob Storage</t>
+  </si>
+  <si>
+    <t>Latency-based routing in DNS</t>
+  </si>
+  <si>
+    <t>Amazon EC2 or Azure</t>
+  </si>
+  <si>
+    <t>shared object cache like Redis or Memcached</t>
+  </si>
+  <si>
+    <t>books to read</t>
+  </si>
+  <si>
+    <t>scalability</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>disributed transactions an 2 phase commit (2PC)</t>
   </si>
 </sst>
 </file>
@@ -430,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,39 +466,51 @@
     <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -482,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -490,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -498,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -506,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -514,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -522,12 +558,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>row number</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>disributed transactions an 2 phase commit (2PC)</t>
+  </si>
+  <si>
+    <t>Replication in SqlServer</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +601,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>row number</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Replication in SqlServer</t>
+  </si>
+  <si>
+    <t>implement a push message from server to client</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +612,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>row number</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>implement a push message from server to client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">too many web service methods VS not many methods approach </t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +623,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>row number</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t xml:space="preserve">too many web service methods VS not many methods approach </t>
+  </si>
+  <si>
+    <t>a project to buy car at high demand moments</t>
+  </si>
+  <si>
+    <t>SQL VS NOSQL data stores</t>
+  </si>
+  <si>
+    <t>Nginx to be studied</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +638,30 @@
       </c>
       <c r="B18" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>row number</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Nginx to be studied</t>
+  </si>
+  <si>
+    <t>memcached or Redis cache servers</t>
+  </si>
+  <si>
+    <t>write a cache server application capable of clustering servers</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,6 +668,22 @@
       </c>
       <c r="B21" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>row number</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>write a cache server application capable of clustering servers</t>
+  </si>
+  <si>
+    <t>study about message queue</t>
+  </si>
+  <si>
+    <t>cron-like and daemon-like message consumer</t>
+  </si>
+  <si>
+    <t>push message to android app</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +693,30 @@
       </c>
       <c r="B23" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>row number</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>push message to android app</t>
+  </si>
+  <si>
+    <t>write a custom http client using sockets</t>
   </si>
 </sst>
 </file>
@@ -487,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,6 +720,14 @@
       </c>
       <c r="B26" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>row number</t>
   </si>
@@ -136,12 +136,24 @@
   <si>
     <t>write a custom http client using sockets</t>
   </si>
+  <si>
+    <t>end-to-end tests are Jmeter and Selenium</t>
+  </si>
+  <si>
+    <t>Jenkins, Atlassian Bamboo continuous deployment pipel</t>
+  </si>
+  <si>
+    <t>Chef or Puppet so that you can build server definitions and then create identical instances of these servers at will</t>
+  </si>
+  <si>
+    <t>The best monitoring service I have seen so far (as of 2014) is Datadog. Stackdriver, New Relic, and Server Density</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF221E1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -183,12 +201,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,16 +509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,8 +749,41 @@
         <v>31</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>row number</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>The best monitoring service I have seen so far (as of 2014) is Datadog. Stackdriver, New Relic, and Server Density</t>
+  </si>
+  <si>
+    <t>Fluentd log server</t>
   </si>
 </sst>
 </file>
@@ -509,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +782,14 @@
       </c>
       <c r="B31" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>row number</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Fluentd log server</t>
+  </si>
+  <si>
+    <t>Question: What if two devices have one MAC address</t>
   </si>
 </sst>
 </file>
@@ -204,13 +207,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +796,14 @@
       </c>
       <c r="B32" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>row number</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Question: What if two devices have one MAC address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connect two mobile phones by sockets </t>
+  </si>
+  <si>
+    <t>IP port forwarding</t>
   </si>
 </sst>
 </file>
@@ -518,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +810,22 @@
       </c>
       <c r="B33" s="4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>row number</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>IP port forwarding</t>
+  </si>
+  <si>
+    <t>IP Options</t>
+  </si>
+  <si>
+    <t>what if pc1 IP address prefix is 10.10/16 and pc2 is 10/8 and has 10.1.1 as hostid</t>
   </si>
 </sst>
 </file>
@@ -524,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,6 +832,22 @@
       </c>
       <c r="B35" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>row number</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>what if pc1 IP address prefix is 10.10/16 and pc2 is 10/8 and has 10.1.1 as hostid</t>
+  </si>
+  <si>
+    <t>NAT (Network Address Translation)</t>
+  </si>
+  <si>
+    <t>VPN</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +854,22 @@
       </c>
       <c r="B37" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>row number</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>VPN</t>
+  </si>
+  <si>
+    <t>what if two applications use same TCP/UDP port number</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
@@ -870,6 +873,14 @@
       </c>
       <c r="B39" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>row number</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>what if two applications use same TCP/UDP port number</t>
+  </si>
+  <si>
+    <t>https://tutorials-raspberrypi.com/write-raspberry-pi-gui-apps-c-sharp-dot-net/</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,6 +884,14 @@
       </c>
       <c r="B40" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>row number</t>
   </si>
@@ -178,12 +178,24 @@
   <si>
     <t>https://tutorials-raspberrypi.com/write-raspberry-pi-gui-apps-c-sharp-dot-net/</t>
   </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4XpnKHJAok8 » llinus ablout git</t>
+  </si>
+  <si>
+    <t>how a router earns money?</t>
+  </si>
+  <si>
+    <t>port restricted cone NAT</t>
+  </si>
+  <si>
+    <t>twice NAT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +215,14 @@
       <color rgb="FF221E1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -228,10 +248,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -241,8 +262,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,9 +917,44 @@
         <v>45</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B42" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/AudioDemo/Learning/TODOs.xlsx
+++ b/AudioDemo/Learning/TODOs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>row number</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>twice NAT</t>
+  </si>
+  <si>
+    <t>write a simple web server program</t>
+  </si>
+  <si>
+    <t>get other site content in server an pass it to client</t>
   </si>
 </sst>
 </file>
@@ -565,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,6 +953,22 @@
       </c>
       <c r="B45" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
